--- a/data/trans_dic/P43C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Estudios-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.5141824217344313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.460766768779465</v>
+        <v>0.4607667687794651</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3798972175889893</v>
+        <v>0.3806912182595225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5069515181281344</v>
+        <v>0.5042751329170181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4801876204063358</v>
+        <v>0.482276595342318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4347590383680113</v>
+        <v>0.4309013825095695</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4317894622312641</v>
+        <v>0.432514566427457</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.561457998840596</v>
+        <v>0.5627377702938582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5472673585172821</v>
+        <v>0.5469903885994004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4884213831956801</v>
+        <v>0.48991969069129</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5778425070950124</v>
+        <v>0.5791033987822787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6871784493277806</v>
+        <v>0.6840974086606565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6410324818480014</v>
+        <v>0.6400681175995097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5468504242618056</v>
+        <v>0.5474422502270589</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6257700985166579</v>
+        <v>0.6280963914503083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.730775784067719</v>
+        <v>0.731498688806176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6824450965245601</v>
+        <v>0.6830070490569483</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5942788182241945</v>
+        <v>0.5935325103400571</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.7751032883152094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7587354807175956</v>
+        <v>0.7587354807175954</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6395723139068028</v>
+        <v>0.6434083011808706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7210687705380957</v>
+        <v>0.7227933298643373</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7350093876743611</v>
+        <v>0.7353980563664102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7227537049944446</v>
+        <v>0.7214660017745108</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7282207558553212</v>
+        <v>0.730196923123461</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8037488351183261</v>
+        <v>0.8038124684952234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8084841650136022</v>
+        <v>0.8056466105954507</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.791205466022784</v>
+        <v>0.7929343307336023</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6350590620307611</v>
+        <v>0.6332266877340103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6217986789517573</v>
+        <v>0.6230018427598765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5619001976039354</v>
+        <v>0.5629935000755603</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6667803110789344</v>
+        <v>0.6664066820916791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6553576541845803</v>
+        <v>0.6556126650329677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5970556888206047</v>
+        <v>0.5955526412777936</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>487714</v>
+        <v>488733</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>668349</v>
+        <v>664821</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>469351</v>
+        <v>471393</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>286595</v>
+        <v>284052</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>554333</v>
+        <v>555264</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>740209</v>
+        <v>741896</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>534917</v>
+        <v>534646</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>321969</v>
+        <v>322957</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>907950</v>
+        <v>909931</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1197984</v>
+        <v>1192612</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1263276</v>
+        <v>1261375</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>878698</v>
+        <v>879649</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>983258</v>
+        <v>986913</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1273988</v>
+        <v>1275249</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1344887</v>
+        <v>1345994</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>954907</v>
+        <v>953708</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>301859</v>
+        <v>303669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>329218</v>
+        <v>330005</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>402152</v>
+        <v>402364</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>368460</v>
+        <v>367803</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343698</v>
+        <v>344631</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>366967</v>
+        <v>366996</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>442352</v>
+        <v>440800</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>403357</v>
+        <v>404238</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2234312</v>
+        <v>2227866</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2173348</v>
+        <v>2177553</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1559744</v>
+        <v>1562779</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2345916</v>
+        <v>2344602</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2290645</v>
+        <v>2291537</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1657330</v>
+        <v>1653158</v>
       </c>
     </row>
     <row r="20">
